--- a/INPUT/test/example2.xlsx
+++ b/INPUT/test/example2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2MaiML2/INPUT/test2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30BB6DD-244E-BB41-B75F-323A0BD7BA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D51ADF-7108-374A-8051-8F2D6E845A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCUMENT" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="135">
   <si>
     <t>TEMPLATEID</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>UUID</t>
-  </si>
-  <si>
-    <t>PROGRAMID</t>
   </si>
   <si>
     <t>TRANSITIONREF</t>
@@ -641,6 +638,10 @@
   </si>
   <si>
     <t>BBBBHPLC:plot_run_time</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PARENTID</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2329,18 +2330,18 @@
         <v>15</v>
       </c>
       <c r="G1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -2351,60 +2352,60 @@
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="27" t="s">
         <v>43</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
@@ -2413,16 +2414,16 @@
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
@@ -2443,8 +2444,8 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
@@ -2475,18 +2476,18 @@
         <v>15</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
@@ -2497,10 +2498,10 @@
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
@@ -2511,48 +2512,52 @@
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="44"/>
+      <c r="G4" s="56" t="s">
+        <v>56</v>
+      </c>
       <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1">
       <c r="A5" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="44"/>
+      <c r="G5" s="56" t="s">
+        <v>56</v>
+      </c>
       <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A6" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="41"/>
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2603,13 +2608,13 @@
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2619,13 +2624,13 @@
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -2635,13 +2640,13 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="53" t="s">
-        <v>67</v>
-      </c>
       <c r="D4" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2651,7 +2656,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2663,7 +2668,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2675,7 +2680,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2687,7 +2692,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2743,18 +2748,18 @@
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -2763,15 +2768,15 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -2780,15 +2785,15 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -2805,7 +2810,7 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -2866,16 +2871,16 @@
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1">
       <c r="A2" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>75</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -2889,16 +2894,16 @@
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1">
       <c r="A3" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="55" t="s">
         <v>77</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>78</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
@@ -2906,26 +2911,26 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
       <c r="J3" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K3" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L3" s="57"/>
       <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1">
       <c r="A4" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>79</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>80</v>
       </c>
       <c r="E4" s="57"/>
       <c r="F4" s="57"/>
@@ -2933,26 +2938,26 @@
       <c r="H4" s="57"/>
       <c r="I4" s="57"/>
       <c r="J4" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L4" s="57"/>
       <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="24" customHeight="1">
       <c r="A5" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>74</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>75</v>
       </c>
       <c r="E5" s="57"/>
       <c r="F5" s="57"/>
@@ -2966,16 +2971,16 @@
     </row>
     <row r="6" spans="1:13" ht="24" customHeight="1">
       <c r="A6" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="55" t="s">
         <v>111</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>112</v>
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="57"/>
@@ -2983,7 +2988,7 @@
       <c r="H6" s="57"/>
       <c r="I6" s="57"/>
       <c r="J6" s="57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K6" s="59"/>
       <c r="L6" s="57"/>
@@ -2991,16 +2996,16 @@
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1">
       <c r="A7" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="55" t="s">
         <v>74</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>75</v>
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="57"/>
@@ -3014,16 +3019,16 @@
     </row>
     <row r="8" spans="1:13" ht="24" customHeight="1">
       <c r="A8" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" s="57"/>
       <c r="F8" s="57"/>
@@ -3031,7 +3036,7 @@
       <c r="H8" s="57"/>
       <c r="I8" s="57"/>
       <c r="J8" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K8" s="59"/>
       <c r="L8" s="57"/>
@@ -3039,16 +3044,16 @@
     </row>
     <row r="9" spans="1:13" ht="24" customHeight="1">
       <c r="A9" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
@@ -3056,7 +3061,7 @@
       <c r="H9" s="57"/>
       <c r="I9" s="57"/>
       <c r="J9" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K9" s="59"/>
       <c r="L9" s="57"/>
@@ -3064,26 +3069,26 @@
     </row>
     <row r="10" spans="1:13" ht="24" customHeight="1">
       <c r="A10" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="57" t="s">
         <v>116</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>117</v>
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="58"/>
       <c r="H10" s="57"/>
       <c r="I10" s="57"/>
       <c r="J10" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K10" s="59"/>
       <c r="L10" s="57"/>
@@ -3091,16 +3096,16 @@
     </row>
     <row r="11" spans="1:13" ht="24" customHeight="1">
       <c r="A11" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="55" t="s">
         <v>74</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>75</v>
       </c>
       <c r="E11" s="57"/>
       <c r="F11" s="57"/>
@@ -3114,16 +3119,16 @@
     </row>
     <row r="12" spans="1:13" ht="24" customHeight="1">
       <c r="A12" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="57"/>
       <c r="F12" s="57"/>
@@ -3131,7 +3136,7 @@
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
       <c r="J12" s="57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K12" s="59"/>
       <c r="L12" s="57"/>
@@ -3139,16 +3144,16 @@
     </row>
     <row r="13" spans="1:13" ht="24" customHeight="1">
       <c r="A13" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="55" t="s">
         <v>74</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>75</v>
       </c>
       <c r="E13" s="57"/>
       <c r="F13" s="57"/>
@@ -3162,16 +3167,16 @@
     </row>
     <row r="14" spans="1:13" ht="24" customHeight="1">
       <c r="A14" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="57"/>
@@ -3179,7 +3184,7 @@
       <c r="H14" s="57"/>
       <c r="I14" s="57"/>
       <c r="J14" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K14" s="59"/>
       <c r="L14" s="57"/>
@@ -3187,26 +3192,26 @@
     </row>
     <row r="15" spans="1:13" ht="24" customHeight="1">
       <c r="A15" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="58"/>
       <c r="H15" s="57"/>
       <c r="I15" s="57"/>
       <c r="J15" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K15" s="59"/>
       <c r="L15" s="57"/>
@@ -3214,16 +3219,16 @@
     </row>
     <row r="16" spans="1:13" ht="24" customHeight="1">
       <c r="A16" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="55" t="s">
         <v>74</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>75</v>
       </c>
       <c r="E16" s="57"/>
       <c r="F16" s="57"/>
@@ -3237,26 +3242,26 @@
     </row>
     <row r="17" spans="1:13" ht="24" customHeight="1">
       <c r="A17" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="57" t="s">
         <v>122</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="57" t="s">
-        <v>123</v>
       </c>
       <c r="F17" s="57"/>
       <c r="G17" s="58"/>
       <c r="H17" s="57"/>
       <c r="I17" s="57"/>
       <c r="J17" s="57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K17" s="59"/>
       <c r="L17" s="57"/>
@@ -3264,26 +3269,26 @@
     </row>
     <row r="18" spans="1:13" ht="24" customHeight="1">
       <c r="A18" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" s="57"/>
       <c r="G18" s="58"/>
       <c r="H18" s="57"/>
       <c r="I18" s="57"/>
       <c r="J18" s="57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K18" s="59"/>
       <c r="L18" s="57"/>
@@ -3291,16 +3296,16 @@
     </row>
     <row r="19" spans="1:13" ht="24" customHeight="1">
       <c r="A19" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="55" t="s">
         <v>74</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>75</v>
       </c>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
@@ -3314,26 +3319,26 @@
     </row>
     <row r="20" spans="1:13" ht="24" customHeight="1">
       <c r="A20" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="57" t="s">
         <v>128</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>129</v>
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="58"/>
       <c r="H20" s="57"/>
       <c r="I20" s="57"/>
       <c r="J20" s="57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K20" s="59"/>
       <c r="L20" s="57"/>
@@ -3341,16 +3346,16 @@
     </row>
     <row r="21" spans="1:13" ht="24" customHeight="1">
       <c r="A21" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="57"/>
@@ -3364,16 +3369,16 @@
     </row>
     <row r="22" spans="1:13" ht="24" customHeight="1">
       <c r="A22" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="57"/>
       <c r="F22" s="57"/>
@@ -3384,21 +3389,21 @@
       <c r="K22" s="59"/>
       <c r="L22" s="57"/>
       <c r="M22" s="57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="24" customHeight="1">
       <c r="A23" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
@@ -3409,24 +3414,24 @@
       <c r="K23" s="59"/>
       <c r="L23" s="57"/>
       <c r="M23" s="57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="24" customHeight="1">
       <c r="A24" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" s="57"/>
       <c r="G24" s="58"/>
@@ -3436,24 +3441,24 @@
       <c r="K24" s="59"/>
       <c r="L24" s="57"/>
       <c r="M24" s="57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="24" customHeight="1">
       <c r="A25" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F25" s="57"/>
       <c r="G25" s="58"/>
@@ -3463,24 +3468,24 @@
       <c r="K25" s="59"/>
       <c r="L25" s="57"/>
       <c r="M25" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="24" customHeight="1">
       <c r="A26" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E26" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F26" s="57"/>
       <c r="G26" s="58"/>
@@ -3490,77 +3495,77 @@
       <c r="K26" s="59"/>
       <c r="L26" s="57"/>
       <c r="M26" s="57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="24" customHeight="1">
       <c r="A27" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>84</v>
-      </c>
       <c r="E27" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F27" s="57"/>
       <c r="G27" s="58"/>
       <c r="H27" s="57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I27" s="57"/>
       <c r="J27" s="57"/>
       <c r="K27" s="59"/>
       <c r="L27" s="57"/>
       <c r="M27" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="24" customHeight="1">
       <c r="A28" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="55" t="s">
         <v>83</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>84</v>
       </c>
       <c r="E28" s="57"/>
       <c r="F28" s="57"/>
       <c r="G28" s="58"/>
       <c r="H28" s="57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I28" s="57"/>
       <c r="J28" s="57"/>
       <c r="K28" s="59"/>
       <c r="L28" s="57"/>
       <c r="M28" s="57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="24" customHeight="1">
       <c r="A29" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="55" t="s">
         <v>74</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="55" t="s">
-        <v>75</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="57"/>
@@ -3574,26 +3579,26 @@
     </row>
     <row r="30" spans="1:13" ht="24" customHeight="1">
       <c r="A30" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>84</v>
-      </c>
       <c r="E30" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F30" s="57"/>
       <c r="G30" s="58"/>
       <c r="H30" s="57"/>
       <c r="I30" s="57"/>
       <c r="J30" s="60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K30" s="59"/>
       <c r="L30" s="57"/>
@@ -3601,26 +3606,26 @@
     </row>
     <row r="31" spans="1:13" ht="24" customHeight="1">
       <c r="A31" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>84</v>
-      </c>
       <c r="E31" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F31" s="57"/>
       <c r="G31" s="58"/>
       <c r="H31" s="57"/>
       <c r="I31" s="57"/>
       <c r="J31" s="60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K31" s="59"/>
       <c r="L31" s="57"/>
@@ -3628,26 +3633,26 @@
     </row>
     <row r="32" spans="1:13" ht="24" customHeight="1">
       <c r="A32" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>84</v>
-      </c>
       <c r="E32" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F32" s="57"/>
       <c r="G32" s="58"/>
       <c r="H32" s="57"/>
       <c r="I32" s="57"/>
       <c r="J32" s="55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K32" s="59"/>
       <c r="L32" s="57"/>
@@ -3655,16 +3660,16 @@
     </row>
     <row r="33" spans="1:13" ht="24" customHeight="1">
       <c r="A33" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="55" t="s">
         <v>83</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="55" t="s">
-        <v>84</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="57"/>
@@ -3672,7 +3677,7 @@
       <c r="H33" s="57"/>
       <c r="I33" s="57"/>
       <c r="J33" s="55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K33" s="59"/>
       <c r="L33" s="57"/>
@@ -3680,16 +3685,16 @@
     </row>
     <row r="34" spans="1:13" ht="24" customHeight="1">
       <c r="A34" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="55" t="s">
         <v>83</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>84</v>
       </c>
       <c r="E34" s="57"/>
       <c r="F34" s="57"/>
@@ -3697,7 +3702,7 @@
       <c r="H34" s="57"/>
       <c r="I34" s="57"/>
       <c r="J34" s="60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K34" s="59"/>
       <c r="L34" s="57"/>
@@ -3705,16 +3710,16 @@
     </row>
     <row r="35" spans="1:13" ht="24" customHeight="1">
       <c r="A35" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35" s="57"/>
       <c r="F35" s="57"/>
@@ -3722,7 +3727,7 @@
       <c r="H35" s="57"/>
       <c r="I35" s="57"/>
       <c r="J35" s="60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K35" s="59"/>
       <c r="L35" s="57"/>
@@ -3730,16 +3735,16 @@
     </row>
     <row r="36" spans="1:13" ht="24" customHeight="1">
       <c r="A36" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E36" s="57"/>
       <c r="F36" s="57"/>
@@ -3747,7 +3752,7 @@
       <c r="H36" s="57"/>
       <c r="I36" s="57"/>
       <c r="J36" s="60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K36" s="59"/>
       <c r="L36" s="57"/>

--- a/INPUT/test/example2.xlsx
+++ b/INPUT/test/example2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2MaiML2/INPUT/test2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Expansion/現在進行形/90_PublicGithub/MaiMLFileHandlingPtograms/Excel2DocandProtocolofMaiML/INPUT/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D51ADF-7108-374A-8051-8F2D6E845A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AB6D59-C929-1847-BA20-0E6EC3FD8BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="12400" windowWidth="37900" windowHeight="16400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCUMENT" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="136">
   <si>
     <t>TEMPLATEID</t>
   </si>
@@ -642,6 +642,10 @@
   </si>
   <si>
     <t>PARENTID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UUID</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2444,7 +2448,7 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -2711,19 +2715,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="7" width="26.6640625" style="2"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="1" max="8" width="26.6640625" style="2"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" customHeight="1">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2731,71 +2735,77 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2808,10 +2818,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="14"/>
@@ -2823,12 +2833,12 @@
     <col min="8" max="9" width="20.1640625" style="50" customWidth="1"/>
     <col min="10" max="10" width="32.1640625" style="50" customWidth="1"/>
     <col min="11" max="11" width="38.33203125" style="51" customWidth="1"/>
-    <col min="12" max="13" width="25.1640625" style="50"/>
-    <col min="14" max="14" width="5.83203125" style="49" customWidth="1"/>
-    <col min="15" max="16384" width="25.1640625" style="49"/>
+    <col min="12" max="12" width="25.1640625" style="50"/>
+    <col min="13" max="13" width="5.83203125" style="49" customWidth="1"/>
+    <col min="14" max="16384" width="25.1640625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" customHeight="1">
+    <row r="1" spans="1:12" ht="24" customHeight="1">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -2863,13 +2873,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1">
+    <row r="2" spans="1:12" ht="24" customHeight="1">
       <c r="A2" s="56" t="s">
         <v>67</v>
       </c>
@@ -2890,9 +2897,8 @@
       <c r="J2" s="57"/>
       <c r="K2" s="59"/>
       <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1">
       <c r="A3" s="56" t="s">
         <v>67</v>
       </c>
@@ -2917,9 +2923,8 @@
         <v>81</v>
       </c>
       <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-    </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1">
       <c r="A4" s="56" t="s">
         <v>67</v>
       </c>
@@ -2944,9 +2949,8 @@
         <v>80</v>
       </c>
       <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-    </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1">
       <c r="A5" s="56" t="s">
         <v>68</v>
       </c>
@@ -2967,9 +2971,8 @@
       <c r="J5" s="57"/>
       <c r="K5" s="59"/>
       <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-    </row>
-    <row r="6" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="6" spans="1:12" ht="24" customHeight="1">
       <c r="A6" s="56" t="s">
         <v>68</v>
       </c>
@@ -2992,9 +2995,8 @@
       </c>
       <c r="K6" s="59"/>
       <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-    </row>
-    <row r="7" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="7" spans="1:12" ht="24" customHeight="1">
       <c r="A7" s="56" t="s">
         <v>68</v>
       </c>
@@ -3015,9 +3017,8 @@
       <c r="J7" s="57"/>
       <c r="K7" s="59"/>
       <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-    </row>
-    <row r="8" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="8" spans="1:12" ht="24" customHeight="1">
       <c r="A8" s="56" t="s">
         <v>68</v>
       </c>
@@ -3040,9 +3041,8 @@
       </c>
       <c r="K8" s="59"/>
       <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-    </row>
-    <row r="9" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="9" spans="1:12" ht="24" customHeight="1">
       <c r="A9" s="56" t="s">
         <v>68</v>
       </c>
@@ -3065,9 +3065,8 @@
       </c>
       <c r="K9" s="59"/>
       <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-    </row>
-    <row r="10" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="10" spans="1:12" ht="24" customHeight="1">
       <c r="A10" s="56" t="s">
         <v>68</v>
       </c>
@@ -3092,9 +3091,8 @@
       </c>
       <c r="K10" s="59"/>
       <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-    </row>
-    <row r="11" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="11" spans="1:12" ht="24" customHeight="1">
       <c r="A11" s="56" t="s">
         <v>68</v>
       </c>
@@ -3115,9 +3113,8 @@
       <c r="J11" s="57"/>
       <c r="K11" s="59"/>
       <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-    </row>
-    <row r="12" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="12" spans="1:12" ht="24" customHeight="1">
       <c r="A12" s="56" t="s">
         <v>68</v>
       </c>
@@ -3140,9 +3137,8 @@
       </c>
       <c r="K12" s="59"/>
       <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-    </row>
-    <row r="13" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="13" spans="1:12" ht="24" customHeight="1">
       <c r="A13" s="56" t="s">
         <v>68</v>
       </c>
@@ -3163,9 +3159,8 @@
       <c r="J13" s="57"/>
       <c r="K13" s="59"/>
       <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-    </row>
-    <row r="14" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="14" spans="1:12" ht="24" customHeight="1">
       <c r="A14" s="56" t="s">
         <v>68</v>
       </c>
@@ -3188,9 +3183,8 @@
       </c>
       <c r="K14" s="59"/>
       <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-    </row>
-    <row r="15" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="15" spans="1:12" ht="24" customHeight="1">
       <c r="A15" s="56" t="s">
         <v>68</v>
       </c>
@@ -3215,9 +3209,8 @@
       </c>
       <c r="K15" s="59"/>
       <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-    </row>
-    <row r="16" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="16" spans="1:12" ht="24" customHeight="1">
       <c r="A16" s="56" t="s">
         <v>68</v>
       </c>
@@ -3238,9 +3231,8 @@
       <c r="J16" s="57"/>
       <c r="K16" s="59"/>
       <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-    </row>
-    <row r="17" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="17" spans="1:12" ht="24" customHeight="1">
       <c r="A17" s="56" t="s">
         <v>68</v>
       </c>
@@ -3265,9 +3257,8 @@
       </c>
       <c r="K17" s="59"/>
       <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-    </row>
-    <row r="18" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="18" spans="1:12" ht="24" customHeight="1">
       <c r="A18" s="56" t="s">
         <v>68</v>
       </c>
@@ -3292,9 +3283,8 @@
       </c>
       <c r="K18" s="59"/>
       <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-    </row>
-    <row r="19" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="19" spans="1:12" ht="24" customHeight="1">
       <c r="A19" s="56" t="s">
         <v>68</v>
       </c>
@@ -3315,9 +3305,8 @@
       <c r="J19" s="57"/>
       <c r="K19" s="59"/>
       <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-    </row>
-    <row r="20" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="20" spans="1:12" ht="24" customHeight="1">
       <c r="A20" s="56" t="s">
         <v>68</v>
       </c>
@@ -3342,9 +3331,8 @@
       </c>
       <c r="K20" s="59"/>
       <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-    </row>
-    <row r="21" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="21" spans="1:12" ht="24" customHeight="1">
       <c r="A21" s="56" t="s">
         <v>68</v>
       </c>
@@ -3365,9 +3353,8 @@
       <c r="J21" s="57"/>
       <c r="K21" s="59"/>
       <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-    </row>
-    <row r="22" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="22" spans="1:12" ht="24" customHeight="1">
       <c r="A22" s="56" t="s">
         <v>69</v>
       </c>
@@ -3387,12 +3374,11 @@
       <c r="I22" s="57"/>
       <c r="J22" s="57"/>
       <c r="K22" s="59"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57" t="s">
+      <c r="L22" s="57" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="24" customHeight="1">
+    <row r="23" spans="1:12" ht="24" customHeight="1">
       <c r="A23" s="56" t="s">
         <v>69</v>
       </c>
@@ -3412,12 +3398,11 @@
       <c r="I23" s="57"/>
       <c r="J23" s="57"/>
       <c r="K23" s="59"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57" t="s">
+      <c r="L23" s="57" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="24" customHeight="1">
+    <row r="24" spans="1:12" ht="24" customHeight="1">
       <c r="A24" s="56" t="s">
         <v>69</v>
       </c>
@@ -3439,12 +3424,11 @@
       <c r="I24" s="57"/>
       <c r="J24" s="57"/>
       <c r="K24" s="59"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57" t="s">
+      <c r="L24" s="57" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="24" customHeight="1">
+    <row r="25" spans="1:12" ht="24" customHeight="1">
       <c r="A25" s="56" t="s">
         <v>69</v>
       </c>
@@ -3466,12 +3450,11 @@
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
       <c r="K25" s="59"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57" t="s">
+      <c r="L25" s="57" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="24" customHeight="1">
+    <row r="26" spans="1:12" ht="24" customHeight="1">
       <c r="A26" s="56" t="s">
         <v>69</v>
       </c>
@@ -3493,12 +3476,11 @@
       <c r="I26" s="57"/>
       <c r="J26" s="57"/>
       <c r="K26" s="59"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57" t="s">
+      <c r="L26" s="57" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="24" customHeight="1">
+    <row r="27" spans="1:12" ht="24" customHeight="1">
       <c r="A27" s="56" t="s">
         <v>69</v>
       </c>
@@ -3522,12 +3504,11 @@
       <c r="I27" s="57"/>
       <c r="J27" s="57"/>
       <c r="K27" s="59"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57" t="s">
+      <c r="L27" s="57" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="24" customHeight="1">
+    <row r="28" spans="1:12" ht="24" customHeight="1">
       <c r="A28" s="56" t="s">
         <v>69</v>
       </c>
@@ -3549,12 +3530,11 @@
       <c r="I28" s="57"/>
       <c r="J28" s="57"/>
       <c r="K28" s="59"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57" t="s">
+      <c r="L28" s="57" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="24" customHeight="1">
+    <row r="29" spans="1:12" ht="24" customHeight="1">
       <c r="A29" s="56" t="s">
         <v>69</v>
       </c>
@@ -3575,9 +3555,8 @@
       <c r="J29" s="57"/>
       <c r="K29" s="59"/>
       <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-    </row>
-    <row r="30" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="30" spans="1:12" ht="24" customHeight="1">
       <c r="A30" s="56" t="s">
         <v>69</v>
       </c>
@@ -3602,9 +3581,8 @@
       </c>
       <c r="K30" s="59"/>
       <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-    </row>
-    <row r="31" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="31" spans="1:12" ht="24" customHeight="1">
       <c r="A31" s="56" t="s">
         <v>69</v>
       </c>
@@ -3624,14 +3602,13 @@
       <c r="G31" s="58"/>
       <c r="H31" s="57"/>
       <c r="I31" s="57"/>
-      <c r="J31" s="60" t="s">
-        <v>132</v>
+      <c r="J31" s="55" t="s">
+        <v>100</v>
       </c>
       <c r="K31" s="59"/>
       <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-    </row>
-    <row r="32" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="32" spans="1:12" ht="24" customHeight="1">
       <c r="A32" s="56" t="s">
         <v>69</v>
       </c>
@@ -3656,9 +3633,8 @@
       </c>
       <c r="K32" s="59"/>
       <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-    </row>
-    <row r="33" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="33" spans="1:12" ht="24" customHeight="1">
       <c r="A33" s="56" t="s">
         <v>69</v>
       </c>
@@ -3676,14 +3652,13 @@
       <c r="G33" s="58"/>
       <c r="H33" s="57"/>
       <c r="I33" s="57"/>
-      <c r="J33" s="55" t="s">
-        <v>100</v>
+      <c r="J33" s="60" t="s">
+        <v>132</v>
       </c>
       <c r="K33" s="59"/>
       <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-    </row>
-    <row r="34" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="34" spans="1:12" ht="24" customHeight="1">
       <c r="A34" s="56" t="s">
         <v>69</v>
       </c>
@@ -3706,9 +3681,8 @@
       </c>
       <c r="K34" s="59"/>
       <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-    </row>
-    <row r="35" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="35" spans="1:12" ht="24" customHeight="1">
       <c r="A35" s="56" t="s">
         <v>69</v>
       </c>
@@ -3731,9 +3705,8 @@
       </c>
       <c r="K35" s="59"/>
       <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-    </row>
-    <row r="36" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="36" spans="1:12" ht="24" customHeight="1">
       <c r="A36" s="56" t="s">
         <v>69</v>
       </c>
@@ -3756,7 +3729,6 @@
       </c>
       <c r="K36" s="59"/>
       <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
